--- a/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -329,23 +330,7 @@
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 500</t>
-    </r>
+    <t xml:space="preserve">op-option-1/20% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">SimpleCare 100</t>
@@ -394,7 +379,7 @@
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-2/Nil</t>
+    <t xml:space="preserve">op-option-2/USD 25</t>
   </si>
   <si>
     <t xml:space="preserve">SimpleCare 250</t>
@@ -436,155 +421,49 @@
     <t xml:space="preserve">Residents of Africa- Worldwide excluding USA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 150</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 250</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-4/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 250</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 1,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-5/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 1,000</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 2,500</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-6/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 2,500</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 5,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-7/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 5,000</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 10,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-8/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 10,000</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">USD 15,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-9/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 15,000</t>
-    </r>
+    <t xml:space="preserve">ip-option-1/USD 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-2/Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-3/USD 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-4/USD 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-5/USD 1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-6/USD 2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-7/USD 5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-8/USD 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip-option-9/USD 15,000</t>
   </si>
 </sst>
 </file>
@@ -595,7 +474,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -636,16 +515,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +559,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -719,19 +588,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,11 +615,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN1" activeCellId="0" sqref="BN:BN"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.26"/>
@@ -967,7 +828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="378.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="336.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -1133,11 +994,11 @@
       <c r="BM2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BN2" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="103.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1294,7 +1155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="447.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="402.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1441,11 +1302,8 @@
         <v>110</v>
       </c>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="8" t="s">
+      <c r="BK4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="BN4" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1311,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1463,7 +1321,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1471,27 +1329,27 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="8"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="9"/>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="8"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
       <c r="AT5" s="4"/>
@@ -1501,20 +1359,17 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
-      <c r="BN5" s="7" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1524,7 +1379,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1532,27 +1387,27 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="9"/>
+      <c r="W6" s="8"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="8"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="9"/>
+      <c r="AE6" s="8"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
       <c r="AT6" s="4"/>
@@ -1562,53 +1417,38 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
-      <c r="BN6" s="7" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV7" s="0"/>
       <c r="BF7" s="1"/>
       <c r="BI7" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BJ7" s="4"/>
-      <c r="BN7" s="7" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV8" s="0"/>
       <c r="BF8" s="1"/>
       <c r="BI8" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN8" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV9" s="0"/>
       <c r="BF9" s="1"/>
       <c r="BI9" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN9" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV10" s="0"/>
       <c r="BF10" s="1"/>
       <c r="BI10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="BN10" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1620,4 +1460,73 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t>PlanName</t>
   </si>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BN2" sqref="BN2:BN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="BN2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="115.5" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>99</v>
       </c>
       <c r="BN3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="409.6" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>108</v>
       </c>
       <c r="BN4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BN5" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
@@ -1759,7 +1759,7 @@
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
       <c r="BN6" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="BJ7" s="4"/>
       <c r="BN7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
@@ -1779,9 +1779,6 @@
       <c r="BI8" t="s">
         <v>112</v>
       </c>
-      <c r="BN8" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AV9"/>
@@ -1789,9 +1786,6 @@
       <c r="BI9" t="s">
         <v>113</v>
       </c>
-      <c r="BN9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AV10"/>
@@ -1799,99 +1793,33 @@
       <c r="BI10" t="s">
         <v>114</v>
       </c>
-      <c r="BN10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN19" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="20" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN20" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="BN20" s="9"/>
     </row>
     <row r="21" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN21" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="BN21" s="9"/>
     </row>
     <row r="22" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN22" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="BN22" s="9"/>
     </row>
     <row r="23" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN23" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="BN23" s="9"/>
     </row>
     <row r="24" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN24" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="BN24" s="9"/>
     </row>
     <row r="25" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN25" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="BN25" s="9"/>
     </row>
     <row r="26" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN26" s="9" t="s">
-        <v>148</v>
-      </c>
+      <c r="BN26" s="9"/>
     </row>
     <row r="27" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN27" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="BN27" s="9"/>
     </row>
     <row r="28" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN28" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="BN28" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1905,75 +1833,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -227,7 +227,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Residents of Africa- Worldwide excluding USA</t>
+      <t xml:space="preserve">Residents of Africa- Worldwide excluding USA/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Residents in the rest of the world- Worldwide Excluding USA</t>
     </r>
   </si>
   <si>
@@ -251,6 +260,15 @@
       </rPr>
       <t xml:space="preserve">Residents of Africa- SimpleCare Africa Network &amp; SimpleCare Comprehensive Network</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/Residents in the rest of the world- SimpleCare Comprehensive Network</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Claims are reimbursed as per reasonable and customary charges as per country of treatment</t>
@@ -424,6 +442,9 @@
     <t xml:space="preserve">USD 250</t>
   </si>
   <si>
+    <t xml:space="preserve">Residents in the rest of the world- Worldwide Excluding USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">USD 1,000</t>
   </si>
   <si>
@@ -474,7 +495,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -515,6 +536,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,6 +623,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,11 +646,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.26"/>
@@ -828,7 +859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="336.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1155,7 +1186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="402.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1306,7 +1337,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1362,7 +1393,9 @@
         <v>112</v>
       </c>
       <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
+      <c r="BK5" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -1417,7 +1450,7 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
@@ -1426,7 +1459,7 @@
       <c r="AV7" s="0"/>
       <c r="BF7" s="1"/>
       <c r="BI7" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BJ7" s="4"/>
     </row>
@@ -1434,21 +1467,21 @@
       <c r="AV8" s="0"/>
       <c r="BF8" s="1"/>
       <c r="BI8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV9" s="0"/>
       <c r="BF9" s="1"/>
       <c r="BI9" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV10" s="0"/>
       <c r="BF10" s="1"/>
       <c r="BI10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1473,51 +1506,51 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
